--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H2">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I2">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J2">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N2">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O2">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P2">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q2">
-        <v>74.79703876129624</v>
+        <v>85.80981056881588</v>
       </c>
       <c r="R2">
-        <v>74.79703876129624</v>
+        <v>772.2882951193429</v>
       </c>
       <c r="S2">
-        <v>0.02821514526536478</v>
+        <v>0.03138859482930642</v>
       </c>
       <c r="T2">
-        <v>0.02821514526536478</v>
+        <v>0.03138859482930642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H3">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I3">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J3">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N3">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P3">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q3">
-        <v>375.7365021434351</v>
+        <v>383.6792668266543</v>
       </c>
       <c r="R3">
-        <v>375.7365021434351</v>
+        <v>3453.113401439889</v>
       </c>
       <c r="S3">
-        <v>0.1417363596881163</v>
+        <v>0.1403470415678065</v>
       </c>
       <c r="T3">
-        <v>0.1417363596881163</v>
+        <v>0.1403470415678064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H4">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I4">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J4">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N4">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O4">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P4">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q4">
-        <v>87.05612121735649</v>
+        <v>89.52029932344142</v>
       </c>
       <c r="R4">
-        <v>87.05612121735649</v>
+        <v>805.6826939109729</v>
       </c>
       <c r="S4">
-        <v>0.03283955016221755</v>
+        <v>0.03274586420638118</v>
       </c>
       <c r="T4">
-        <v>0.03283955016221755</v>
+        <v>0.03274586420638118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H5">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N5">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O5">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P5">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q5">
-        <v>215.5371415209904</v>
+        <v>244.0482727425398</v>
       </c>
       <c r="R5">
-        <v>215.5371415209904</v>
+        <v>2196.434454682858</v>
       </c>
       <c r="S5">
-        <v>0.08130551501516203</v>
+        <v>0.08927105538549558</v>
       </c>
       <c r="T5">
-        <v>0.08130551501516203</v>
+        <v>0.0892710553854956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H6">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N6">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P6">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q6">
-        <v>1082.732324411181</v>
+        <v>1091.206957986192</v>
       </c>
       <c r="R6">
-        <v>1082.732324411181</v>
+        <v>9820.862621875733</v>
       </c>
       <c r="S6">
-        <v>0.4084312737869424</v>
+        <v>0.3991554444894195</v>
       </c>
       <c r="T6">
-        <v>0.4084312737869424</v>
+        <v>0.3991554444894195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H7">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N7">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O7">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P7">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q7">
-        <v>250.8632404415883</v>
+        <v>254.6011263800708</v>
       </c>
       <c r="R7">
-        <v>250.8632404415883</v>
+        <v>2291.410137420638</v>
       </c>
       <c r="S7">
-        <v>0.09463132348579198</v>
+        <v>0.09313121129221205</v>
       </c>
       <c r="T7">
-        <v>0.09463132348579198</v>
+        <v>0.09313121129221205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H8">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.34156132731796</v>
+        <v>8.309350333333333</v>
       </c>
       <c r="N8">
-        <v>7.34156132731796</v>
+        <v>24.928051</v>
       </c>
       <c r="O8">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="P8">
-        <v>0.1391340720095723</v>
+        <v>0.1535033474258946</v>
       </c>
       <c r="Q8">
-        <v>78.5037781701815</v>
+        <v>89.78775416324287</v>
       </c>
       <c r="R8">
-        <v>78.5037781701815</v>
+        <v>808.0897874691859</v>
       </c>
       <c r="S8">
-        <v>0.02961341172904553</v>
+        <v>0.03284369721109259</v>
       </c>
       <c r="T8">
-        <v>0.02961341172904553</v>
+        <v>0.03284369721109259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H9">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.8797029813077</v>
+        <v>37.153391</v>
       </c>
       <c r="N9">
-        <v>36.8797029813077</v>
+        <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="P9">
-        <v>0.6989280646883133</v>
+        <v>0.6863556906301786</v>
       </c>
       <c r="Q9">
-        <v>394.3569893033152</v>
+        <v>401.4657468534753</v>
       </c>
       <c r="R9">
-        <v>394.3569893033152</v>
+        <v>3613.191721681278</v>
       </c>
       <c r="S9">
-        <v>0.1487604312132546</v>
+        <v>0.1468532045729527</v>
       </c>
       <c r="T9">
-        <v>0.1487604312132546</v>
+        <v>0.1468532045729527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H10">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.544828290266031</v>
+        <v>8.668653666666666</v>
       </c>
       <c r="N10">
-        <v>8.544828290266031</v>
+        <v>26.005961</v>
       </c>
       <c r="O10">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="P10">
-        <v>0.1619378633021143</v>
+        <v>0.1601409619439267</v>
       </c>
       <c r="Q10">
-        <v>91.37038767288958</v>
+        <v>93.67025256193843</v>
       </c>
       <c r="R10">
-        <v>91.37038767288958</v>
+        <v>843.0322730574459</v>
       </c>
       <c r="S10">
-        <v>0.03446698965410482</v>
+        <v>0.03426388644533352</v>
       </c>
       <c r="T10">
-        <v>0.03446698965410482</v>
+        <v>0.03426388644533351</v>
       </c>
     </row>
   </sheetData>
